--- a/Requisições da API.xlsx
+++ b/Requisições da API.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jluca\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jluca\OneDrive\Área de Trabalho\Projeto Final - SoundSynth\API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEF77B1-DF35-4154-A8C6-7F1494A73CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C50A4-6CDA-4FE3-B9C8-76405F3FFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{BD36BC8A-1D2C-4175-94B7-5D0D7610CB59}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Teste</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>http://localhost:8080/carrinho/(ID do carrinho)/remover/(ID do item)</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/carrinho/(ID do carrinho)/diminuir/(ID do produto no carrinho)</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/carrinho/(ID do carrinho)/aumentar/(ID do produto no carrinho)</t>
+  </si>
+  <si>
+    <t>Diminuir Qtd</t>
+  </si>
+  <si>
+    <t>Aumentar Qtd</t>
+  </si>
+  <si>
+    <t>Vazio</t>
   </si>
 </sst>
 </file>
@@ -282,11 +297,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8927AD97-DE9D-4FBE-A61A-129E808B320B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,6 +834,34 @@
         <v>200</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{AB93670C-7DA5-4E92-B77D-047C1B9F9951}"/>
@@ -823,8 +869,10 @@
     <hyperlink ref="C7" r:id="rId3" xr:uid="{E165D9C4-D33D-4D9A-B673-12E271B47D06}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{97E9312F-AE86-40C5-B619-36E70A3E0752}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{19BFF90C-616D-417F-881D-EDE54EDC9B58}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{398D2189-DC22-424E-BCCF-048C1D53F1F6}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{A3A03701-9475-4D93-97EF-74BD261D6539}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>